--- a/list_webex.xlsx
+++ b/list_webex.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
-    <t xml:space="preserve">name_room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breakout_room</t>
+    <t xml:space="preserve">name_meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breakout_meeting</t>
   </si>
   <si>
     <t xml:space="preserve">fn_participant</t>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">email_participant</t>
   </si>
   <si>
-    <t xml:space="preserve">test_room</t>
+    <t xml:space="preserve">test_meeting</t>
   </si>
   <si>
     <t xml:space="preserve">Katrien</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">dwelfusius@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">test_room2</t>
+    <t xml:space="preserve">test_meeting2</t>
   </si>
   <si>
     <t xml:space="preserve">Perseph</t>
@@ -244,7 +244,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/list_webex.xlsx
+++ b/list_webex.xlsx
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">date_meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_hour</t>
+  </si>
   <si>
     <t xml:space="preserve">name_meeting</t>
   </si>
@@ -37,6 +46,9 @@
     <t xml:space="preserve">email_participant</t>
   </si>
   <si>
+    <t xml:space="preserve">19/05/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">test_meeting</t>
   </si>
   <si>
@@ -49,6 +61,9 @@
     <t xml:space="preserve">cornelis.katrien@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">19/05/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zione</t>
   </si>
   <si>
@@ -56,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">dwelfusius@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/05/2021</t>
   </si>
   <si>
     <t xml:space="preserve">test_meeting2</t>
@@ -74,8 +92,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -154,8 +173,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,22 +264,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -272,62 +295,98 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
+      <c r="F4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="cornelis.katrien@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="dwelfusius@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="cornelis.katrien@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId2" display="dwelfusius@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/list_webex.xlsx
+++ b/list_webex.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">name_meeting</t>
+  </si>
   <si>
     <t xml:space="preserve">date_meeting</t>
   </si>
@@ -31,9 +34,6 @@
     <t xml:space="preserve">end_hour</t>
   </si>
   <si>
-    <t xml:space="preserve">name_meeting</t>
-  </si>
-  <si>
     <t xml:space="preserve">breakout_meeting</t>
   </si>
   <si>
@@ -46,10 +46,16 @@
     <t xml:space="preserve">email_participant</t>
   </si>
   <si>
+    <t xml:space="preserve">test_meeting</t>
+  </si>
+  <si>
     <t xml:space="preserve">19/05/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">test_meeting</t>
+    <t xml:space="preserve">19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:00</t>
   </si>
   <si>
     <t xml:space="preserve">Katrien</t>
@@ -73,12 +79,12 @@
     <t xml:space="preserve">dwelfusius@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">test_meeting2</t>
+  </si>
+  <si>
     <t xml:space="preserve">18/05/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">test_meeting2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perseph</t>
   </si>
   <si>
@@ -86,6 +92,18 @@
   </si>
   <si>
     <t xml:space="preserve">k.cornelis@degroofpetercam.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_meeting3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katrien.cornelis@biasc.be</t>
   </si>
 </sst>
 </file>
@@ -94,7 +112,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -182,7 +200,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,129 +282,154 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A3"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>11</v>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1.79166666666667</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>2.875</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="cornelis.katrien@gmail.com"/>
     <hyperlink ref="H3" r:id="rId2" display="dwelfusius@gmail.com"/>
+    <hyperlink ref="H5" r:id="rId3" display="katrien.cornelis@biasc.be"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
